--- a/plnn.xlsx
+++ b/plnn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\OneDrive - vnu.edu.vn\Lab\Quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\OneDrive - vnu.edu.vn\Lab\PLNNStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086BFA92-1282-444B-9583-56D6DF993D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA30D3F3-F005-4077-AE08-2EC32E518FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
@@ -2066,16 +2066,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2087,9 +2090,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,7 +2311,7 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2333,8 +2333,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -2344,29 +2344,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -2376,29 +2376,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2408,29 +2408,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -2440,29 +2440,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -2472,36 +2472,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30"/>
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
         <v>6</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -2511,15 +2511,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+    <row r="25" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
         <v>7</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -2529,15 +2529,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="27">
         <v>8</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -2548,28 +2548,28 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="27">
         <v>9</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -2581,13 +2581,13 @@
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+      <c r="A33" s="27">
         <v>10</v>
       </c>
       <c r="B33" s="29" t="s">
@@ -2598,28 +2598,28 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="36" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
+      <c r="A37" s="27">
         <v>11</v>
       </c>
       <c r="B37" s="29" t="s">
@@ -2631,13 +2631,13 @@
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
+      <c r="A39" s="27">
         <v>12</v>
       </c>
       <c r="B39" s="29" t="s">
@@ -2648,28 +2648,40 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="4" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A37:A38"/>
@@ -2682,18 +2694,6 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2706,7 +2706,7 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2726,203 +2726,203 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -2930,15 +2930,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
@@ -2951,10 +2951,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="27">
         <v>8</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -2962,15 +2962,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>89</v>
       </c>
@@ -2983,10 +2983,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2994,15 +2994,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
         <v>94</v>
       </c>
@@ -3015,10 +3015,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="27">
         <v>10</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3026,15 +3026,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>72</v>
       </c>
@@ -3047,10 +3047,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3058,15 +3058,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>101</v>
       </c>
@@ -3079,10 +3079,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>12</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3090,15 +3090,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>72</v>
       </c>
@@ -3111,10 +3111,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="27">
         <v>13</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3122,15 +3122,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>60</v>
       </c>
@@ -3144,11 +3144,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
@@ -3159,17 +3165,11 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3182,7 +3182,7 @@
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3202,32 +3202,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
@@ -3235,171 +3235,171 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3407,15 +3407,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>140</v>
       </c>
@@ -3428,10 +3428,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="27">
         <v>8</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3439,15 +3439,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>145</v>
       </c>
@@ -3460,10 +3460,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -3471,15 +3471,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
         <v>150</v>
       </c>
@@ -3492,10 +3492,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="27">
         <v>10</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>152</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -3503,15 +3503,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="2" t="s">
         <v>155</v>
       </c>
@@ -3524,10 +3524,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -3535,15 +3535,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>160</v>
       </c>
@@ -3556,10 +3556,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>12</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -3567,15 +3567,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="2" t="s">
         <v>164</v>
       </c>
@@ -3588,10 +3588,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="27">
         <v>13</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3599,15 +3599,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>169</v>
       </c>
@@ -3620,10 +3620,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+      <c r="A54" s="27">
         <v>14</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3631,15 +3631,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>173</v>
       </c>
@@ -3652,10 +3652,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
+      <c r="A58" s="27">
         <v>15</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>175</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3663,15 +3663,15 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7" t="s">
         <v>178</v>
       </c>
@@ -3684,7 +3684,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+      <c r="A62" s="27">
         <v>16</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -3695,31 +3695,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="27">
         <v>17</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -3727,15 +3727,15 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="2" t="s">
         <v>186</v>
       </c>
@@ -3748,10 +3748,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="27">
         <v>18</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3759,15 +3759,15 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="7" t="s">
         <v>190</v>
       </c>
@@ -3780,10 +3780,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
+      <c r="A74" s="27">
         <v>19</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>192</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3791,15 +3791,15 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="7" t="s">
         <v>195</v>
       </c>
@@ -3812,10 +3812,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="27">
         <v>20</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -3823,15 +3823,15 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="2" t="s">
         <v>199</v>
       </c>
@@ -3845,11 +3845,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
@@ -3860,31 +3880,11 @@
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3897,7 +3897,7 @@
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3915,11 +3915,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3927,192 +3927,192 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>222</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>225</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4120,15 +4120,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="2" t="s">
         <v>228</v>
       </c>
@@ -4141,10 +4141,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="27">
         <v>8</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>230</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4152,15 +4152,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>233</v>
       </c>
@@ -4173,10 +4173,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4184,15 +4184,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
         <v>217</v>
       </c>
@@ -4205,10 +4205,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="27">
         <v>10</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4216,15 +4216,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>240</v>
       </c>
@@ -4237,10 +4237,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>242</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4248,15 +4248,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>245</v>
       </c>
@@ -4269,10 +4269,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>12</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>247</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -4280,15 +4280,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>250</v>
       </c>
@@ -4301,10 +4301,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="27">
         <v>13</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>252</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -4312,15 +4312,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>255</v>
       </c>
@@ -4333,10 +4333,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+      <c r="A54" s="27">
         <v>14</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>257</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -4344,15 +4344,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>222</v>
       </c>
@@ -4365,10 +4365,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
+      <c r="A58" s="27">
         <v>15</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>260</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -4376,15 +4376,15 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="2" t="s">
         <v>262</v>
       </c>
@@ -4397,7 +4397,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+      <c r="A62" s="27">
         <v>16</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -4408,31 +4408,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="27">
         <v>17</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>269</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -4440,15 +4440,15 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="7" t="s">
         <v>270</v>
       </c>
@@ -4461,10 +4461,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="27">
         <v>18</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="33" t="s">
         <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4472,15 +4472,15 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="7" t="s">
         <v>275</v>
       </c>
@@ -4493,10 +4493,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
+      <c r="A74" s="27">
         <v>19</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>277</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -4504,15 +4504,15 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="7" t="s">
         <v>280</v>
       </c>
@@ -4525,10 +4525,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="27">
         <v>20</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -4536,15 +4536,15 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="2" t="s">
         <v>285</v>
       </c>
@@ -4558,11 +4558,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
@@ -4573,31 +4593,11 @@
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4608,9 +4608,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C58" sqref="A58:XFD81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4628,189 +4630,189 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>291</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>300</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>305</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>306</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4818,15 +4820,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>309</v>
       </c>
@@ -4837,10 +4839,10 @@
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="27">
         <v>8</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>310</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4848,15 +4850,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4865,10 +4867,10 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>312</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4876,15 +4878,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4893,10 +4895,10 @@
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="27">
         <v>10</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>313</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4904,15 +4906,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4921,10 +4923,10 @@
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>314</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4932,15 +4934,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4949,10 +4951,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>12</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>315</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -4960,15 +4962,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>318</v>
       </c>
@@ -4981,10 +4983,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="27">
         <v>13</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>320</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4992,15 +4994,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>323</v>
       </c>
@@ -5013,10 +5015,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+      <c r="A54" s="27">
         <v>14</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>325</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5024,15 +5026,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="2" t="s">
         <v>328</v>
       </c>
@@ -5044,160 +5046,19 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
-        <v>15</v>
-      </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
-        <v>16</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
-        <v>17</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
-        <v>18</v>
-      </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
-        <v>19</v>
-      </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
-        <v>20</v>
-      </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
+  <mergeCells count="28">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
@@ -5207,17 +5068,14 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B42:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5228,9 +5086,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C154" sqref="A154:XFD161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5249,10 +5109,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>330</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -5260,15 +5120,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5277,10 +5137,10 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>333</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5288,15 +5148,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5305,10 +5165,10 @@
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>336</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -5316,15 +5176,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
         <v>339</v>
       </c>
@@ -5337,10 +5197,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -5348,15 +5208,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5365,10 +5225,10 @@
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>344</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5376,15 +5236,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>347</v>
       </c>
@@ -5397,10 +5257,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="27">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>349</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -5408,15 +5268,15 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5425,10 +5285,10 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>351</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -5436,15 +5296,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>354</v>
       </c>
@@ -5457,10 +5317,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>8</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>356</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -5468,15 +5328,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5485,10 +5345,10 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>357</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5496,15 +5356,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5513,10 +5373,10 @@
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="33">
         <v>10</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>344</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5524,15 +5384,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>360</v>
       </c>
@@ -5545,10 +5405,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>11</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>362</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -5556,15 +5416,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>365</v>
       </c>
@@ -5577,10 +5437,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>12</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>367</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5588,15 +5448,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5605,10 +5465,10 @@
       <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="27">
         <v>13</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>368</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5616,15 +5476,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5633,10 +5493,10 @@
       <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+      <c r="A54" s="27">
         <v>14</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>371</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5644,15 +5504,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5661,10 +5521,10 @@
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
+      <c r="A58" s="33">
         <v>15</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>372</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -5672,15 +5532,15 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5689,10 +5549,10 @@
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+      <c r="A62" s="27">
         <v>16</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="33" t="s">
         <v>374</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -5700,15 +5560,15 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5717,10 +5577,10 @@
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="27">
         <v>17</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>375</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -5728,15 +5588,15 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5745,10 +5605,10 @@
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="27">
         <v>18</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="33" t="s">
         <v>377</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -5756,15 +5616,15 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="7" t="s">
         <v>380</v>
       </c>
@@ -5777,10 +5637,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A74" s="32">
+      <c r="A74" s="33">
         <v>19</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>362</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -5788,15 +5648,15 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5805,10 +5665,10 @@
       <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="27">
         <v>20</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>362</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -5816,15 +5676,15 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="7" t="s">
         <v>386</v>
       </c>
@@ -5837,10 +5697,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="32">
+      <c r="A82" s="33">
         <v>21</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="33" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -5848,15 +5708,15 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="7" t="s">
         <v>391</v>
       </c>
@@ -5869,10 +5729,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="32">
+      <c r="A86" s="33">
         <v>22</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="33" t="s">
         <v>393</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -5880,15 +5740,15 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="7" t="s">
         <v>396</v>
       </c>
@@ -5899,10 +5759,10 @@
       <c r="C89" s="8"/>
     </row>
     <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="32">
+      <c r="A90" s="33">
         <v>23</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="33" t="s">
         <v>397</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -5910,15 +5770,15 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="7"/>
     </row>
     <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5927,10 +5787,10 @@
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="32">
+      <c r="A94" s="33">
         <v>24</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="33" t="s">
         <v>399</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -5938,15 +5798,15 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="2" t="s">
         <v>402</v>
       </c>
@@ -5959,10 +5819,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="26">
+      <c r="A98" s="27">
         <v>25</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="33" t="s">
         <v>362</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -5970,15 +5830,15 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="2" t="s">
         <v>406</v>
       </c>
@@ -5991,7 +5851,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="32">
+      <c r="A102" s="33">
         <v>26</v>
       </c>
       <c r="B102" s="29" t="s">
@@ -6002,27 +5862,27 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="30"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="30"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="28"/>
-      <c r="B105" s="31"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="26">
+      <c r="A106" s="27">
         <v>27</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="33" t="s">
         <v>409</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -6030,15 +5890,15 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -6047,10 +5907,10 @@
       <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="32">
+      <c r="A110" s="33">
         <v>28</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="33" t="s">
         <v>411</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -6058,15 +5918,15 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -6075,10 +5935,10 @@
       <c r="C113" s="8"/>
     </row>
     <row r="114" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26">
+      <c r="A114" s="27">
         <v>29</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="33" t="s">
         <v>412</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -6086,15 +5946,15 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="7"/>
     </row>
     <row r="117" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6103,10 +5963,10 @@
       <c r="C117" s="8"/>
     </row>
     <row r="118" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="26">
+      <c r="A118" s="27">
         <v>30</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="33" t="s">
         <v>414</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -6114,15 +5974,15 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -6131,10 +5991,10 @@
       <c r="C121" s="8"/>
     </row>
     <row r="122" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="32">
+      <c r="A122" s="33">
         <v>31</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="33" t="s">
         <v>415</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -6142,15 +6002,15 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="7"/>
     </row>
     <row r="125" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -6159,10 +6019,10 @@
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="26">
+      <c r="A126" s="27">
         <v>32</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="33" t="s">
         <v>344</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -6170,15 +6030,15 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="7" t="s">
         <v>418</v>
       </c>
@@ -6191,10 +6051,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A130" s="26">
+      <c r="A130" s="27">
         <v>33</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="33" t="s">
         <v>420</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -6202,15 +6062,15 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="16" t="s">
         <v>423</v>
       </c>
@@ -6223,10 +6083,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
+      <c r="A134" s="27">
         <v>34</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="27" t="s">
         <v>425</v>
       </c>
       <c r="C134" s="17" t="s">
@@ -6234,15 +6094,15 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="7" t="s">
         <v>428</v>
       </c>
@@ -6255,10 +6115,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="32">
+      <c r="A138" s="33">
         <v>35</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="33" t="s">
         <v>344</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -6266,15 +6126,15 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="7" t="s">
         <v>432</v>
       </c>
@@ -6287,10 +6147,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="26">
+      <c r="A142" s="27">
         <v>36</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="33" t="s">
         <v>434</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -6298,15 +6158,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="7"/>
     </row>
     <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -6315,10 +6175,10 @@
       <c r="C145" s="8"/>
     </row>
     <row r="146" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="26">
+      <c r="A146" s="27">
         <v>37</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="33" t="s">
         <v>435</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -6326,15 +6186,15 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6343,10 +6203,10 @@
       <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="32">
+      <c r="A150" s="33">
         <v>38</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="33" t="s">
         <v>437</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -6354,15 +6214,15 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="7" t="s">
         <v>440</v>
       </c>
@@ -6374,86 +6234,34 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="26">
-        <v>39</v>
-      </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="7"/>
-    </row>
-    <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="28"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="8"/>
-    </row>
-    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="26">
-        <v>40</v>
-      </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
+  <mergeCells count="76">
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
     <mergeCell ref="B130:B133"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -6470,36 +6278,40 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6512,7 +6324,7 @@
   </sheetPr>
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6531,10 +6343,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>442</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -6543,15 +6355,15 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
         <v>445</v>
       </c>
@@ -6564,10 +6376,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>447</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6575,15 +6387,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>450</v>
       </c>
@@ -6596,10 +6408,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>452</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -6607,15 +6419,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="20" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
         <v>455</v>
       </c>
@@ -6628,10 +6440,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>457</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -6639,15 +6451,15 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>241</v>
       </c>
@@ -6660,10 +6472,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="27">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>225</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -6671,15 +6483,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>227</v>
       </c>
@@ -6692,10 +6504,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="27">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>460</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -6703,15 +6515,15 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="16" t="s">
         <v>273</v>
       </c>
@@ -6724,10 +6536,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>461</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -6735,15 +6547,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="2" t="s">
         <v>279</v>
       </c>
@@ -6756,10 +6568,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="27">
         <v>8</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>269</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -6767,15 +6579,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>462</v>
       </c>
@@ -6788,10 +6600,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6799,15 +6611,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
         <v>216</v>
       </c>
@@ -6820,10 +6632,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="27">
         <v>10</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>282</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -6831,15 +6643,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="2" t="s">
         <v>285</v>
       </c>
@@ -6852,10 +6664,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>11</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>464</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -6863,15 +6675,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>467</v>
       </c>
@@ -6884,10 +6696,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>12</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>469</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -6895,15 +6707,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>472</v>
       </c>
@@ -6916,10 +6728,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="27">
         <v>13</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>474</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -6927,16 +6739,16 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="21" t="s">
         <v>476</v>
       </c>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>477</v>
       </c>
@@ -6949,10 +6761,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+      <c r="A54" s="27">
         <v>14</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>479</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -6960,15 +6772,15 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>482</v>
       </c>
@@ -6981,10 +6793,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
+      <c r="A58" s="27">
         <v>15</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>484</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -6992,15 +6804,15 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="21" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7" t="s">
         <v>475</v>
       </c>
@@ -7013,10 +6825,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+      <c r="A62" s="27">
         <v>16</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="34" t="s">
         <v>488</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -7024,31 +6836,31 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="27">
         <v>17</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>493</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -7056,15 +6868,15 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="24" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="21" t="s">
         <v>496</v>
       </c>
@@ -7077,7 +6889,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="27">
         <v>18</v>
       </c>
       <c r="B70" s="29" t="s">
@@ -7088,31 +6900,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
-      <c r="B73" s="31"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
+      <c r="A74" s="27">
         <v>19</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>230</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -7120,15 +6932,15 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="7" t="s">
         <v>233</v>
       </c>
@@ -7141,10 +6953,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="27">
         <v>20</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -7152,15 +6964,15 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="7" t="s">
         <v>204</v>
       </c>
@@ -7173,10 +6985,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
+      <c r="A82" s="27">
         <v>21</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="33" t="s">
         <v>206</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -7184,15 +6996,15 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
@@ -7205,10 +7017,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
+      <c r="A86" s="27">
         <v>22</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="33" t="s">
         <v>252</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -7216,15 +7028,15 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="7" t="s">
         <v>255</v>
       </c>
@@ -7237,7 +7049,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="26">
+      <c r="A90" s="27">
         <v>23</v>
       </c>
       <c r="B90" s="29" t="s">
@@ -7248,31 +7060,31 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="30"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="30"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
-      <c r="B93" s="31"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="26">
+      <c r="A94" s="27">
         <v>24</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="33" t="s">
         <v>498</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -7280,15 +7092,15 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="7" t="s">
         <v>501</v>
       </c>
@@ -7301,10 +7113,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="26">
+      <c r="A98" s="27">
         <v>25</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="27" t="s">
         <v>503</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -7312,15 +7124,15 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="24" t="s">
         <v>506</v>
       </c>
@@ -7333,10 +7145,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="26">
+      <c r="A102" s="27">
         <v>26</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="27" t="s">
         <v>507</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -7344,15 +7156,15 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="21" t="s">
         <v>510</v>
       </c>
@@ -7365,10 +7177,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="26">
+      <c r="A106" s="27">
         <v>27</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="27" t="s">
         <v>512</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -7376,15 +7188,15 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="21" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="7" t="s">
         <v>515</v>
       </c>
@@ -7397,10 +7209,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26">
+      <c r="A110" s="27">
         <v>28</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="27" t="s">
         <v>517</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -7408,15 +7220,15 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="7" t="s">
         <v>520</v>
       </c>
@@ -7429,10 +7241,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="26">
+      <c r="A114" s="27">
         <v>29</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="27" t="s">
         <v>522</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -7441,15 +7253,15 @@
       <c r="D114" s="25"/>
     </row>
     <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="7" t="s">
         <v>525</v>
       </c>
@@ -7462,10 +7274,10 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="26">
+      <c r="A118" s="27">
         <v>30</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="27" t="s">
         <v>527</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -7473,15 +7285,15 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="21" t="s">
         <v>530</v>
       </c>
@@ -7494,10 +7306,10 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="26">
+      <c r="A122" s="27">
         <v>31</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="27" t="s">
         <v>532</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -7505,15 +7317,15 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="7" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="7" t="s">
         <v>535</v>
       </c>
@@ -7526,22 +7338,22 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="26">
+      <c r="A126" s="27">
         <v>32</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="27" t="s">
         <v>537</v>
       </c>
       <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="7"/>
     </row>
     <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="7"/>
     </row>
     <row r="129" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -7550,10 +7362,10 @@
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A130" s="35">
+      <c r="A130" s="36">
         <v>33</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="33" t="s">
         <v>235</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -7561,31 +7373,31 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
+      <c r="A133" s="30"/>
       <c r="B133" s="28"/>
       <c r="C133" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
+      <c r="A134" s="27">
         <v>34</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="27" t="s">
         <v>538</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -7593,15 +7405,15 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="21" t="s">
         <v>259</v>
       </c>
@@ -7614,10 +7426,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="26">
+      <c r="A138" s="27">
         <v>35</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="27" t="s">
         <v>539</v>
       </c>
       <c r="C138" s="23" t="s">
@@ -7625,15 +7437,15 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="7" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="7" t="s">
         <v>542</v>
       </c>
@@ -7646,10 +7458,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="26">
+      <c r="A142" s="27">
         <v>36</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="33" t="s">
         <v>260</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -7657,15 +7469,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="2" t="s">
         <v>262</v>
       </c>
@@ -7678,10 +7490,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="26">
+      <c r="A146" s="27">
         <v>37</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="27" t="s">
         <v>544</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -7689,15 +7501,15 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="21" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="7" t="s">
         <v>547</v>
       </c>
@@ -7710,10 +7522,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A150" s="26">
+      <c r="A150" s="27">
         <v>38</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="27" t="s">
         <v>549</v>
       </c>
       <c r="C150" s="23" t="s">
@@ -7721,15 +7533,15 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="7" t="s">
         <v>552</v>
       </c>
@@ -7742,10 +7554,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="26">
+      <c r="A154" s="27">
         <v>39</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="27" t="s">
         <v>554</v>
       </c>
       <c r="C154" s="9" t="s">
@@ -7753,15 +7565,15 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="7" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
+      <c r="A156" s="31"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="21" t="s">
         <v>557</v>
       </c>
@@ -7774,10 +7586,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="26">
+      <c r="A158" s="27">
         <v>40</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="27" t="s">
         <v>559</v>
       </c>
       <c r="C158" s="23" t="s">
@@ -7785,15 +7597,15 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
+      <c r="A159" s="31"/>
+      <c r="B159" s="31"/>
       <c r="C159" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="7" t="s">
         <v>562</v>
       </c>
@@ -7806,10 +7618,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>41</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="27" t="s">
         <v>564</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -7817,15 +7629,15 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="21" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
+      <c r="A164" s="31"/>
+      <c r="B164" s="31"/>
       <c r="C164" s="7" t="s">
         <v>567</v>
       </c>
@@ -7838,10 +7650,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="26">
+      <c r="A166" s="27">
         <v>42</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="27" t="s">
         <v>554</v>
       </c>
       <c r="C166" s="23" t="s">
@@ -7849,15 +7661,15 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
+      <c r="A167" s="31"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="24" t="s">
         <v>571</v>
       </c>
@@ -7870,10 +7682,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A170" s="26">
+      <c r="A170" s="27">
         <v>43</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="B170" s="27" t="s">
         <v>573</v>
       </c>
       <c r="C170" s="9" t="s">
@@ -7881,15 +7693,15 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
+      <c r="A171" s="31"/>
+      <c r="B171" s="31"/>
       <c r="C171" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="7" t="s">
         <v>576</v>
       </c>
@@ -7903,40 +7715,42 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B154:B157"/>
     <mergeCell ref="B158:B161"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -7953,42 +7767,40 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plnn.xlsx
+++ b/plnn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\OneDrive - vnu.edu.vn\Lab\PLNNStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA30D3F3-F005-4077-AE08-2EC32E518FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D288E13-08CA-42A9-B935-823789115DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="577">
   <si>
     <t>STT</t>
   </si>
@@ -1662,9 +1662,6 @@
   </si>
   <si>
     <t>Áp dụng theo quy định của Luật</t>
-  </si>
-  <si>
-    <t>Nhận định nào sau đây KHÔNG đúng</t>
   </si>
   <si>
     <t>Các hình thức thực hiện pháp luật là:</t>
@@ -1831,7 +1828,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,6 +1863,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1995,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2049,12 +2058,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2082,14 +2085,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,6 +2130,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCFE2F3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2334,10 +2372,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2345,31 +2383,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2377,31 +2415,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2409,31 +2447,31 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2441,31 +2479,31 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2473,38 +2511,38 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="25">
         <v>6</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2512,17 +2550,17 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="25">
         <v>7</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2530,17 +2568,17 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>8</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2548,31 +2586,31 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="25">
         <v>9</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2580,17 +2618,17 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="25">
         <v>10</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2598,31 +2636,31 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="26" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="A37" s="25">
         <v>11</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2630,17 +2668,17 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="25">
         <v>12</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2648,22 +2686,22 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="4" t="s">
         <v>52</v>
       </c>
@@ -2727,10 +2765,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2738,31 +2776,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2770,31 +2808,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2802,31 +2840,31 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2834,31 +2872,31 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2866,31 +2904,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2898,31 +2936,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -2930,31 +2968,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -2962,31 +3000,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="25">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2994,31 +3032,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="25">
         <v>10</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3026,31 +3064,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="25">
         <v>11</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3058,31 +3096,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3090,31 +3128,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>13</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3122,39 +3160,39 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="8" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
@@ -3165,11 +3203,11 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3203,10 +3241,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3214,32 +3252,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3247,31 +3285,31 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3279,31 +3317,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3311,31 +3349,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3343,31 +3381,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3375,31 +3413,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3407,31 +3445,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3439,31 +3477,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="25">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -3471,31 +3509,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="25">
         <v>10</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -3503,31 +3541,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="25">
         <v>11</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="31" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -3535,31 +3573,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -3567,31 +3605,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>13</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3599,31 +3637,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="25">
         <v>14</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3631,31 +3669,31 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="25">
         <v>15</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3663,31 +3701,31 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+      <c r="A62" s="25">
         <v>16</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3695,31 +3733,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
+      <c r="A66" s="25">
         <v>17</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -3727,31 +3765,31 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
+      <c r="A70" s="25">
         <v>18</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3759,31 +3797,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
+      <c r="A74" s="25">
         <v>19</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>192</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3791,31 +3829,31 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="27">
+      <c r="A78" s="25">
         <v>20</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="31" t="s">
         <v>196</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -3823,22 +3861,22 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="8" t="s">
         <v>200</v>
       </c>
@@ -3856,20 +3894,20 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
@@ -3880,11 +3918,11 @@
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3916,10 +3954,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3928,31 +3966,31 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3960,31 +3998,31 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3992,31 +4030,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4024,31 +4062,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4056,31 +4094,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>222</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4088,31 +4126,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>225</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4120,31 +4158,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>230</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4152,31 +4190,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="25">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4184,31 +4222,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="25">
         <v>10</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4216,31 +4254,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="25">
         <v>11</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="31" t="s">
         <v>242</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4248,31 +4286,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>247</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -4280,31 +4318,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>13</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>252</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -4312,31 +4350,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="25">
         <v>14</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="31" t="s">
         <v>257</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -4344,31 +4382,31 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="25">
         <v>15</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>260</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -4376,31 +4414,31 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+      <c r="A62" s="25">
         <v>16</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="27" t="s">
         <v>264</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -4408,31 +4446,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
+      <c r="A66" s="25">
         <v>17</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -4440,31 +4478,31 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
+      <c r="A70" s="25">
         <v>18</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4472,31 +4510,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
+      <c r="A74" s="25">
         <v>19</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>277</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -4504,31 +4542,31 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="27">
+      <c r="A78" s="25">
         <v>20</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="31" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -4536,22 +4574,22 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="8" t="s">
         <v>279</v>
       </c>
@@ -4569,20 +4607,20 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
@@ -4593,11 +4631,11 @@
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4631,10 +4669,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4642,31 +4680,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4674,29 +4712,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4704,27 +4742,27 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4732,27 +4770,27 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>300</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -4760,31 +4798,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>305</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4792,27 +4830,27 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>306</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4820,29 +4858,29 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>310</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4850,27 +4888,27 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="25">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>312</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4878,27 +4916,27 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="25">
         <v>10</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>313</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4906,27 +4944,27 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="25">
         <v>11</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="31" t="s">
         <v>314</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4934,27 +4972,27 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>315</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -4962,31 +5000,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>13</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>320</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4994,31 +5032,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="25">
         <v>14</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="31" t="s">
         <v>325</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5026,22 +5064,22 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="8" t="s">
         <v>329</v>
       </c>
@@ -5109,10 +5147,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>330</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -5120,27 +5158,27 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>333</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5148,27 +5186,27 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>336</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -5176,31 +5214,31 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -5208,27 +5246,27 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5236,31 +5274,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -5268,27 +5306,27 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="31">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>351</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -5296,31 +5334,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>356</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -5328,27 +5366,27 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>357</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5356,27 +5394,27 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="31">
         <v>10</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5384,31 +5422,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="25">
         <v>11</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="32" t="s">
         <v>362</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -5416,31 +5454,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>367</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5448,27 +5486,27 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>13</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>368</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5476,27 +5514,27 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="25">
         <v>14</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="31" t="s">
         <v>371</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5504,27 +5542,27 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+      <c r="A58" s="31">
         <v>15</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>372</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -5532,27 +5570,27 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+      <c r="A62" s="25">
         <v>16</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="31" t="s">
         <v>374</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -5560,27 +5598,27 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
+      <c r="A66" s="25">
         <v>17</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="31" t="s">
         <v>375</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -5588,27 +5626,27 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
+      <c r="A70" s="25">
         <v>18</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="31" t="s">
         <v>377</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -5616,31 +5654,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="A74" s="31">
         <v>19</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>362</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -5648,27 +5686,27 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="27">
+      <c r="A78" s="25">
         <v>20</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="31" t="s">
         <v>362</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -5676,31 +5714,31 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
+      <c r="A82" s="31">
         <v>21</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="31" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -5708,31 +5746,31 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="33">
+      <c r="A86" s="31">
         <v>22</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="31" t="s">
         <v>393</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -5740,29 +5778,29 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="8"/>
     </row>
     <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
+      <c r="A90" s="31">
         <v>23</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="31" t="s">
         <v>397</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -5770,27 +5808,27 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="7"/>
     </row>
     <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33">
+      <c r="A94" s="31">
         <v>24</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="31" t="s">
         <v>399</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -5798,31 +5836,31 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
+      <c r="A98" s="25">
         <v>25</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="31" t="s">
         <v>362</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -5830,31 +5868,31 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="33">
+      <c r="A102" s="31">
         <v>26</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="27" t="s">
         <v>408</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -5862,27 +5900,27 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="30"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="27">
+      <c r="A106" s="25">
         <v>27</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="31" t="s">
         <v>409</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -5890,27 +5928,27 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="33">
+      <c r="A110" s="31">
         <v>28</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="31" t="s">
         <v>411</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -5918,27 +5956,27 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="31"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="8"/>
     </row>
     <row r="114" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="27">
+      <c r="A114" s="25">
         <v>29</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="31" t="s">
         <v>412</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -5946,27 +5984,27 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="7"/>
     </row>
     <row r="117" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="8"/>
     </row>
     <row r="118" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="27">
+      <c r="A118" s="25">
         <v>30</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="31" t="s">
         <v>414</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -5974,27 +6012,27 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="31"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="31"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="8"/>
     </row>
     <row r="122" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="33">
+      <c r="A122" s="31">
         <v>31</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="31" t="s">
         <v>415</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -6002,27 +6040,27 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="31"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="7"/>
     </row>
     <row r="125" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="27">
+      <c r="A126" s="25">
         <v>32</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -6030,31 +6068,31 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A130" s="27">
+      <c r="A130" s="25">
         <v>33</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="31" t="s">
         <v>420</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -6062,31 +6100,31 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
-      <c r="B131" s="31"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="31"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="16" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="27">
+      <c r="A134" s="25">
         <v>34</v>
       </c>
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="25" t="s">
         <v>425</v>
       </c>
       <c r="C134" s="17" t="s">
@@ -6094,31 +6132,31 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="7" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="16" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="33">
+      <c r="A138" s="31">
         <v>35</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -6126,31 +6164,31 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="27">
+      <c r="A142" s="25">
         <v>36</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="31" t="s">
         <v>434</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -6158,27 +6196,27 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="7"/>
     </row>
     <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="8"/>
     </row>
     <row r="146" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="27">
+      <c r="A146" s="25">
         <v>37</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="31" t="s">
         <v>435</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -6186,27 +6224,27 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="33">
+      <c r="A150" s="31">
         <v>38</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="31" t="s">
         <v>437</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -6214,22 +6252,22 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="8" t="s">
         <v>441</v>
       </c>
@@ -6322,9 +6360,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6343,10 +6383,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>442</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -6355,31 +6395,31 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="34" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>447</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6387,31 +6427,31 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="34" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>452</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -6419,31 +6459,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="35" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>457</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -6451,31 +6491,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>225</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -6483,31 +6523,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>460</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -6515,31 +6555,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>461</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -6547,31 +6587,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -6579,31 +6619,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="16" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="25">
         <v>9</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6611,31 +6651,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="25">
         <v>10</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>282</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -6643,31 +6683,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="25">
         <v>11</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>464</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -6675,31 +6715,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>469</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -6707,31 +6747,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>13</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="25" t="s">
         <v>474</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -6739,64 +6779,64 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="21" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="D51" s="22"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="25">
         <v>14</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="21" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="25">
         <v>15</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="25" t="s">
         <v>484</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -6804,63 +6844,63 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="21" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="36" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+      <c r="A62" s="25">
         <v>16</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="38" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
+      <c r="A66" s="25">
         <v>17</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="25" t="s">
         <v>493</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -6868,31 +6908,31 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="24" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="22" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="21" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="36" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
+      <c r="A70" s="25">
         <v>18</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="27" t="s">
         <v>264</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -6900,31 +6940,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="30"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
+      <c r="A74" s="25">
         <v>19</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>230</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -6932,31 +6972,31 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="27">
+      <c r="A78" s="25">
         <v>20</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="31" t="s">
         <v>201</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -6964,31 +7004,31 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="27">
+      <c r="A82" s="25">
         <v>21</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -6996,31 +7036,31 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="27">
+      <c r="A86" s="25">
         <v>22</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="31" t="s">
         <v>252</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -7028,63 +7068,63 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
+      <c r="A90" s="25">
         <v>23</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="2" t="s">
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="27">
+      <c r="A94" s="25">
         <v>24</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="31" t="s">
         <v>498</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -7092,63 +7132,63 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
+      <c r="A98" s="25">
         <v>25</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="39" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="24" t="s">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="22" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="19" t="s">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="40" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="27">
+      <c r="A102" s="25">
         <v>26</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="25" t="s">
         <v>507</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -7156,31 +7196,31 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="21" t="s">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="36" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="8" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="27">
+      <c r="A106" s="25">
         <v>27</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="25" t="s">
         <v>512</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -7188,31 +7228,31 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="21" t="s">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="36" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="8" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="27">
+      <c r="A110" s="25">
         <v>28</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="25" t="s">
         <v>517</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -7220,64 +7260,64 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="31"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="7" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="19" t="s">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="34" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="27">
+      <c r="A114" s="25">
         <v>29</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="D114" s="25"/>
+      <c r="D114" s="23"/>
     </row>
     <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="8" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="27">
+      <c r="A118" s="25">
         <v>30</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="25" t="s">
         <v>527</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -7285,31 +7325,31 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="7" t="s">
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="37" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="21" t="s">
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="42" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="27">
+      <c r="A122" s="25">
         <v>31</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="25" t="s">
         <v>532</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -7317,409 +7357,380 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="31"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="7" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="8" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="27">
+    <row r="126" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="25">
         <v>32</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="25">
+        <v>33</v>
+      </c>
+      <c r="B130" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A130" s="36">
-        <v>33</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
-      <c r="B131" s="31"/>
+      <c r="C130" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A133" s="30"/>
-      <c r="B133" s="28"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="8" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="27">
+      <c r="A134" s="25">
         <v>34</v>
       </c>
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
+      <c r="C134" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="8" t="s">
-        <v>258</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="27">
+      <c r="A138" s="25">
         <v>35</v>
       </c>
-      <c r="B138" s="27" t="s">
-        <v>539</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
+      <c r="B138" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="25">
+        <v>36</v>
+      </c>
+      <c r="B142" s="25" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="27">
-        <v>36</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="7" t="s">
-        <v>261</v>
+      <c r="C142" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="19" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="27">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="25">
         <v>37</v>
       </c>
-      <c r="B146" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>545</v>
+      <c r="B146" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="21" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A150" s="27">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A150" s="25">
         <v>38</v>
       </c>
-      <c r="B150" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
+      <c r="B150" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="25">
+        <v>39</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A155" s="29"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A156" s="29"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A158" s="25">
+        <v>40</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A159" s="29"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="29"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A162" s="25">
+        <v>41</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="27">
-        <v>39</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="21" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="28"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="27">
-        <v>40</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="27">
-        <v>41</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>565</v>
+      <c r="C162" s="21" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="21" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="22" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
       <c r="C165" s="8" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="27">
+      <c r="A166" s="25">
         <v>42</v>
       </c>
-      <c r="B166" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
-      <c r="B167" s="31"/>
+      <c r="B166" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
-      <c r="B168" s="31"/>
-      <c r="C168" s="24" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A170" s="27">
-        <v>43</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="C170" s="9" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="7" t="s">
+    <row r="168" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A168" s="29"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="7" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="7" t="s">
+    <row r="169" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="34" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="19" t="s">
-        <v>577</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
+  <mergeCells count="84">
     <mergeCell ref="B86:B89"/>
     <mergeCell ref="B90:B93"/>
     <mergeCell ref="B94:B97"/>
@@ -7728,30 +7739,30 @@
     <mergeCell ref="B118:B121"/>
     <mergeCell ref="A122:A125"/>
     <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
     <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A154:A157"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A162:A165"/>
     <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A126:A129"/>
     <mergeCell ref="A130:A133"/>
     <mergeCell ref="A134:A137"/>
     <mergeCell ref="A138:A141"/>
     <mergeCell ref="A142:A145"/>
     <mergeCell ref="A146:A149"/>
     <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B158:B161"/>
     <mergeCell ref="B162:B165"/>
     <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B130:B133"/>
     <mergeCell ref="B134:B137"/>
     <mergeCell ref="B138:B141"/>
     <mergeCell ref="B142:B145"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="B150:B153"/>
     <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B158:B161"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
@@ -7791,6 +7802,9 @@
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="A86:A89"/>
     <mergeCell ref="A90:A93"/>
     <mergeCell ref="A94:A97"/>

--- a/plnn.xlsx
+++ b/plnn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\OneDrive - vnu.edu.vn\Lab\PLNNStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D288E13-08CA-42A9-B935-823789115DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8E002-39B3-494E-8D1D-634A1CC7C014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,9 +1607,6 @@
     <t>H nói Nhà nước Anh hiện nay là một nhà nước quân chủ, ngôi vua được hình thành bằng phương thức cha truyền con nối. Đây là một nhà nước quân chủ tuyệt đối. M nói nhà nước Anh không phải là nhà nước quân chủ tuyệt đối mà chỉ là nhà nước quân chủ tương đối. Vậy đáp án đúng là:</t>
   </si>
   <si>
-    <t>Nhà nước Anh là nhà nước quân chủ vừa tuyệt đối vừa tương đối</t>
-  </si>
-  <si>
     <t>Nhà nước Anh là nhà nước quân chủ nhị nguyên</t>
   </si>
   <si>
@@ -1782,6 +1779,9 @@
   </si>
   <si>
     <t>Thuật ngữ Nhà nước pháp quyền được ghi nhận trong Hiến pháp 2013 của nước Cộng hòa xã hội chủ nghĩa Việt Nam và trong các văn kiện của Đảng Cộng sản Việt Nam</t>
+  </si>
+  <si>
+    <t>Nhà nước Anh là nhà nước quân chủ đại nghị</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2058,9 +2058,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2071,25 +2068,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2103,25 +2081,38 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2372,10 +2363,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2383,31 +2374,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2415,31 +2406,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2447,31 +2438,31 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2479,31 +2470,31 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2511,38 +2502,38 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="31">
         <v>6</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2550,17 +2541,17 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="31">
         <v>7</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2568,17 +2559,17 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="31">
         <v>8</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2586,31 +2577,31 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="31">
         <v>9</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2618,17 +2609,17 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="31">
         <v>10</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2636,31 +2627,31 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="24" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="31">
         <v>11</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2668,17 +2659,17 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="31">
         <v>12</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2686,40 +2677,28 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="4" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A37:A38"/>
@@ -2732,6 +2711,18 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2765,10 +2756,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2776,31 +2767,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2808,31 +2799,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2840,31 +2831,31 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2872,31 +2863,31 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2904,31 +2895,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2936,31 +2927,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -2968,31 +2959,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3000,31 +2991,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -3032,31 +3023,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="31">
         <v>10</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3064,31 +3055,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="31">
         <v>11</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3096,31 +3087,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="31">
         <v>12</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3128,31 +3119,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>13</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3160,28 +3151,42 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="8" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
@@ -3194,20 +3199,6 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3241,10 +3232,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3252,32 +3243,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3285,31 +3276,31 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3317,31 +3308,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3349,31 +3340,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3381,31 +3372,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3413,31 +3404,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3445,31 +3436,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3477,31 +3468,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -3509,31 +3500,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="31">
         <v>10</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>152</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -3541,31 +3532,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="31">
         <v>11</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -3573,31 +3564,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="31">
         <v>12</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -3605,31 +3596,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>13</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3637,31 +3628,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="31">
         <v>14</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3669,31 +3660,31 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="A58" s="31">
         <v>15</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3701,31 +3692,31 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="31">
         <v>16</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3733,31 +3724,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="31">
         <v>17</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -3765,31 +3756,31 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="31">
         <v>18</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="37" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3797,31 +3788,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="A74" s="31">
         <v>19</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="37" t="s">
         <v>192</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3829,31 +3820,31 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="A78" s="31">
         <v>20</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>196</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -3861,54 +3852,33 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="8" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A42:A45"/>
@@ -3918,11 +3888,32 @@
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3954,10 +3945,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3966,31 +3957,31 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3998,31 +3989,31 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4030,31 +4021,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4062,31 +4053,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4094,31 +4085,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>222</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4126,31 +4117,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>225</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4158,31 +4149,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>230</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4190,31 +4181,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4222,31 +4213,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="31">
         <v>10</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4254,31 +4245,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="31">
         <v>11</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="37" t="s">
         <v>242</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4286,31 +4277,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="31">
         <v>12</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>247</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -4318,31 +4309,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>13</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>252</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -4350,31 +4341,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="31">
         <v>14</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="37" t="s">
         <v>257</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -4382,31 +4373,31 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="A58" s="31">
         <v>15</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -4414,31 +4405,31 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="31">
         <v>16</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="34" t="s">
         <v>264</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -4446,31 +4437,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="31">
         <v>17</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="37" t="s">
         <v>269</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -4478,31 +4469,31 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="31">
         <v>18</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="37" t="s">
         <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4510,31 +4501,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="A74" s="31">
         <v>19</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="37" t="s">
         <v>277</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -4542,31 +4533,31 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="A78" s="31">
         <v>20</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -4574,54 +4565,33 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="8" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A42:A45"/>
@@ -4631,11 +4601,32 @@
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4669,10 +4660,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4680,31 +4671,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>291</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4712,29 +4703,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4742,27 +4733,27 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4770,27 +4761,27 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>300</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -4798,31 +4789,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>305</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4830,27 +4821,27 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>306</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4858,29 +4849,29 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>310</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4888,27 +4879,27 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>312</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4916,27 +4907,27 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="31">
         <v>10</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>313</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4944,27 +4935,27 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="31">
         <v>11</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="37" t="s">
         <v>314</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4972,27 +4963,27 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="31">
         <v>12</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>315</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5000,31 +4991,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>13</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>320</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5032,31 +5023,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="31">
         <v>14</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="37" t="s">
         <v>325</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5064,39 +5055,36 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="8" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
@@ -5106,14 +5094,17 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5147,10 +5138,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>330</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -5158,27 +5149,27 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>333</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5186,27 +5177,27 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>336</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -5214,31 +5205,31 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -5246,27 +5237,27 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="A18" s="37">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>344</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5274,31 +5265,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>349</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -5306,27 +5297,27 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+      <c r="A26" s="37">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>351</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -5334,31 +5325,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="7" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+      <c r="A30" s="37">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>356</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -5366,27 +5357,27 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+      <c r="A34" s="37">
         <v>9</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>357</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5394,27 +5385,27 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+      <c r="A38" s="37">
         <v>10</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>344</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5422,31 +5413,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="31">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="38" t="s">
         <v>362</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -5454,31 +5445,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="31">
         <v>12</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>367</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5486,27 +5477,27 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>13</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>368</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5514,27 +5505,27 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="31">
         <v>14</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="37" t="s">
         <v>371</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5542,27 +5533,27 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="31">
+      <c r="A58" s="37">
         <v>15</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="37" t="s">
         <v>372</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -5570,27 +5561,27 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="31">
         <v>16</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="37" t="s">
         <v>374</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -5598,27 +5589,27 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="31">
         <v>17</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="37" t="s">
         <v>375</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -5626,27 +5617,27 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="31">
         <v>18</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="37" t="s">
         <v>377</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -5654,31 +5645,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A74" s="31">
+      <c r="A74" s="37">
         <v>19</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="37" t="s">
         <v>362</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -5686,27 +5677,27 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="A78" s="31">
         <v>20</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>362</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -5714,31 +5705,31 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31">
+      <c r="A82" s="37">
         <v>21</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="37" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -5746,31 +5737,31 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="31">
+      <c r="A86" s="37">
         <v>22</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="37" t="s">
         <v>393</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -5778,29 +5769,29 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="8"/>
     </row>
     <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="31">
+      <c r="A90" s="37">
         <v>23</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="37" t="s">
         <v>397</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -5808,27 +5799,27 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="7"/>
     </row>
     <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="31">
+      <c r="A94" s="37">
         <v>24</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="37" t="s">
         <v>399</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -5836,31 +5827,31 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="25">
+      <c r="A98" s="31">
         <v>25</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="37" t="s">
         <v>362</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -5868,31 +5859,31 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="31">
+      <c r="A102" s="37">
         <v>26</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="34" t="s">
         <v>408</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -5900,27 +5891,27 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="30"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="30"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="25">
+      <c r="A106" s="31">
         <v>27</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="37" t="s">
         <v>409</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -5928,27 +5919,27 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="31">
+      <c r="A110" s="37">
         <v>28</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="37" t="s">
         <v>411</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -5956,27 +5947,27 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="8"/>
     </row>
     <row r="114" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
+      <c r="A114" s="31">
         <v>29</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -5984,27 +5975,27 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="7"/>
     </row>
     <row r="117" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="8"/>
     </row>
     <row r="118" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="25">
+      <c r="A118" s="31">
         <v>30</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="37" t="s">
         <v>414</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -6012,27 +6003,27 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="8"/>
     </row>
     <row r="122" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="31">
+      <c r="A122" s="37">
         <v>31</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="37" t="s">
         <v>415</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -6040,27 +6031,27 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="7"/>
     </row>
     <row r="125" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="25">
+      <c r="A126" s="31">
         <v>32</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="37" t="s">
         <v>344</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -6068,31 +6059,31 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A130" s="25">
+      <c r="A130" s="31">
         <v>33</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="37" t="s">
         <v>420</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -6100,31 +6091,31 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="16" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="25">
+      <c r="A134" s="31">
         <v>34</v>
       </c>
-      <c r="B134" s="25" t="s">
+      <c r="B134" s="31" t="s">
         <v>425</v>
       </c>
       <c r="C134" s="17" t="s">
@@ -6132,31 +6123,31 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="7" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="16" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="31">
+      <c r="A138" s="37">
         <v>35</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="37" t="s">
         <v>344</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -6164,31 +6155,31 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="25">
+      <c r="A142" s="31">
         <v>36</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="37" t="s">
         <v>434</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -6196,27 +6187,27 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
       <c r="C143" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="7"/>
     </row>
     <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="8"/>
     </row>
     <row r="146" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="25">
+      <c r="A146" s="31">
         <v>37</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="37" t="s">
         <v>435</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -6224,27 +6215,27 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="31">
+      <c r="A150" s="37">
         <v>38</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="37" t="s">
         <v>437</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -6252,54 +6243,62 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="8" t="s">
         <v>441</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B130:B133"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -6316,40 +6315,32 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6362,8 +6353,8 @@
   </sheetPr>
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6383,10 +6374,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>442</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -6395,31 +6386,31 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="24" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="31" t="s">
         <v>447</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6427,31 +6418,31 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="24" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>452</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -6459,31 +6450,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>457</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -6491,31 +6482,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>225</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -6523,31 +6514,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>460</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -6555,31 +6546,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>461</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -6587,31 +6578,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>269</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -6619,31 +6610,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="16" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6651,31 +6642,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="31">
         <v>10</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>282</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -6683,31 +6674,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="31">
         <v>11</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="31" t="s">
         <v>464</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -6715,31 +6706,31 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="31">
         <v>12</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>469</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -6747,31 +6738,31 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>13</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="31" t="s">
         <v>474</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -6779,64 +6770,64 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="D51" s="20"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="31">
         <v>14</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="7" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="A58" s="31">
         <v>15</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -6844,63 +6835,63 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="36" t="s">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="26" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="31">
         <v>16</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="9" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="37" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="27" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="31">
         <v>17</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="31" t="s">
         <v>493</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -6908,31 +6899,31 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="22" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="21" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="36" t="s">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="26" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="31">
         <v>18</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="34" t="s">
         <v>264</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -6940,31 +6931,31 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="A74" s="31">
         <v>19</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="37" t="s">
         <v>230</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -6972,31 +6963,31 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="A78" s="31">
         <v>20</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -7004,31 +6995,31 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
+      <c r="A82" s="31">
         <v>21</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="37" t="s">
         <v>206</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -7036,31 +7027,31 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
+      <c r="A86" s="31">
         <v>22</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="37" t="s">
         <v>252</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -7068,63 +7059,63 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
+      <c r="A90" s="31">
         <v>23</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="30"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="44" t="s">
+      <c r="A92" s="32"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
+      <c r="A94" s="31">
         <v>24</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="37" t="s">
         <v>498</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -7132,63 +7123,63 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="25">
+      <c r="A98" s="31">
         <v>25</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="28" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="22" t="s">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="21" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="40" t="s">
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="25">
+      <c r="A102" s="31">
         <v>26</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="31" t="s">
         <v>507</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -7196,31 +7187,31 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="36" t="s">
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="26" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="8" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="25">
+      <c r="A106" s="31">
         <v>27</v>
       </c>
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="31" t="s">
         <v>512</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -7228,160 +7219,160 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="36" t="s">
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="26" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="8" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
+      <c r="A110" s="31">
         <v>28</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="28" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="7" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="7" t="s">
+    <row r="112" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="7" t="s">
+    <row r="113" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="41" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="34" t="s">
+    <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="31">
+        <v>29</v>
+      </c>
+      <c r="B114" s="31" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
-        <v>29</v>
-      </c>
-      <c r="B114" s="25" t="s">
+      <c r="C114" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D114" s="23"/>
-    </row>
-    <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="7" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="7" t="s">
+    <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="8" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="8" t="s">
+    <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="31">
+        <v>30</v>
+      </c>
+      <c r="B118" s="31" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="25">
-        <v>30</v>
-      </c>
-      <c r="B118" s="25" t="s">
+      <c r="C118" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C118" s="9" t="s">
+    </row>
+    <row r="119" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="27" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="37" t="s">
+    <row r="120" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="42" t="s">
+    <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="8" t="s">
+    <row r="122" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="31">
+        <v>31</v>
+      </c>
+      <c r="B122" s="31" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="25">
-        <v>31</v>
-      </c>
-      <c r="B122" s="25" t="s">
+      <c r="C122" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C122" s="9" t="s">
+    </row>
+    <row r="123" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="7" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="7" t="s">
+    <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="7" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="7" t="s">
+    <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="8" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
     <row r="126" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A126" s="25">
+      <c r="A126" s="31">
         <v>32</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="37" t="s">
         <v>235</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -7389,95 +7380,95 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25">
+      <c r="A130" s="31">
         <v>33</v>
       </c>
-      <c r="B130" s="25" t="s">
-        <v>537</v>
+      <c r="B130" s="31" t="s">
+        <v>536</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="36" t="s">
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="26" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="25">
+      <c r="A134" s="31">
         <v>34</v>
       </c>
-      <c r="B134" s="25" t="s">
+      <c r="B134" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C134" s="21" t="s">
+    </row>
+    <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="7" t="s">
+    <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="7" t="s">
+    <row r="137" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="8" t="s">
-        <v>542</v>
-      </c>
-    </row>
     <row r="138" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="25">
+      <c r="A138" s="31">
         <v>35</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -7485,263 +7476,304 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="25">
+      <c r="A142" s="31">
         <v>36</v>
       </c>
-      <c r="B142" s="25" t="s">
+      <c r="B142" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C142" s="9" t="s">
+    </row>
+    <row r="143" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="26" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="19" t="s">
+    <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="7" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="7" t="s">
+    <row r="145" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="8" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="8" t="s">
+    <row r="146" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="31">
+        <v>37</v>
+      </c>
+      <c r="B146" s="31" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="25">
-        <v>37</v>
-      </c>
-      <c r="B146" s="25" t="s">
+      <c r="C146" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="C146" s="21" t="s">
+    </row>
+    <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="7" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="7" t="s">
+    <row r="148" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="7" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="7" t="s">
+    <row r="149" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="8" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="8" t="s">
+    <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A150" s="31">
+        <v>38</v>
+      </c>
+      <c r="B150" s="31" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="25">
-        <v>38</v>
-      </c>
-      <c r="B150" s="25" t="s">
+      <c r="C150" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C150" s="9" t="s">
+    </row>
+    <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="7" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="7" t="s">
+    <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="19" t="s">
+    <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="8" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="8" t="s">
+    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="31">
+        <v>39</v>
+      </c>
+      <c r="B154" s="31" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="25">
-        <v>39</v>
-      </c>
-      <c r="B154" s="25" t="s">
+      <c r="C154" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="C154" s="21" t="s">
+    </row>
+    <row r="155" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="27" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="7" t="s">
+    <row r="156" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="7" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="7" t="s">
+    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="33"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="8" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="8" t="s">
+    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A158" s="31">
+        <v>40</v>
+      </c>
+      <c r="B158" s="31" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="25">
-        <v>40</v>
-      </c>
-      <c r="B158" s="25" t="s">
+      <c r="C158" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C158" s="9" t="s">
+    </row>
+    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A159" s="32"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="26" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="19" t="s">
+    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="32"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="7" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="7" t="s">
+    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="8" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="8" t="s">
+    <row r="162" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A162" s="31">
+        <v>41</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="C162" s="29" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A162" s="25">
-        <v>41</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C162" s="21" t="s">
+    <row r="163" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="7" t="s">
+    <row r="164" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="21" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="22" t="s">
+    <row r="165" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="8" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="8" t="s">
+    <row r="166" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A166" s="31">
+        <v>42</v>
+      </c>
+      <c r="B166" s="31" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="25">
-        <v>42</v>
-      </c>
-      <c r="B166" s="25" t="s">
+      <c r="C166" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C166" s="9" t="s">
+    </row>
+    <row r="167" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="7" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="7" t="s">
+    <row r="168" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="7" t="s">
+    <row r="169" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A169" s="33"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="24" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="34" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B154:B157"/>
     <mergeCell ref="A154:A157"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A162:A165"/>
@@ -7753,68 +7785,27 @@
     <mergeCell ref="A142:A145"/>
     <mergeCell ref="A146:A149"/>
     <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B126:B129"/>
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A106:A109"/>
     <mergeCell ref="A110:A113"/>
     <mergeCell ref="B110:B113"/>
     <mergeCell ref="A114:A117"/>
     <mergeCell ref="B114:B117"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
